--- a/public/data/penjualan/dailyoutput_15122017.xlsx
+++ b/public/data/penjualan/dailyoutput_15122017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYPER SYSTEM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYPER SYSTEM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Kode Obat</t>
   </si>
@@ -44,37 +44,10 @@
     <t>t1</t>
   </si>
   <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
     <t>k1</t>
   </si>
   <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>k3</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
-    <t>k5</t>
-  </si>
-  <si>
-    <t>k6</t>
+    <t>laserin892</t>
   </si>
 </sst>
 </file>
@@ -392,14 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -423,172 +397,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
         <v>1000</v>
       </c>
     </row>
